--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.004</v>
+        <v>-7.271000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.492</v>
+        <v>5.617</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.295999999999999</v>
+        <v>5.755999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.092000000000001</v>
+        <v>5.375</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.108000000000001</v>
+        <v>-8.225000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.374000000000001</v>
+        <v>8.996</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696</v>
+        <v>7.598000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.555</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.482</v>
+        <v>6.334000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.556</v>
+        <v>-7.792</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.726</v>
+        <v>6.637</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.448000000000002</v>
+        <v>-8.279</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>5.689</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.366</v>
+        <v>-7.305</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.046000000000001</v>
+        <v>-7.930000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.744</v>
+        <v>-7.782999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.648</v>
+        <v>9.137</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.094000000000001</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.084000000000001</v>
+        <v>-7.007</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.357999999999999</v>
+        <v>-8.272</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.206</v>
+        <v>-8.1</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.096</v>
+        <v>5.805</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.379999999999999</v>
+        <v>-8.225</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.184000000000001</v>
+        <v>-8.306000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.518</v>
+        <v>4.981999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.145999999999999</v>
+        <v>-8.17</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.794</v>
+        <v>5.145000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.151999999999999</v>
+        <v>-8.279</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.859999999999999</v>
+        <v>5.997000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.164</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.502000000000001</v>
+        <v>-8.326000000000002</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.738</v>
+        <v>-7.888</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>7.136</v>
+        <v>6.406000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.694000000000001</v>
+        <v>5.553000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.886</v>
+        <v>-6.351</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.472</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.146</v>
+        <v>5.469</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.078</v>
+        <v>-6.35</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.394</v>
+        <v>5.635</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.396</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
